--- a/requirements_acceptance_test_.xlsx
+++ b/requirements_acceptance_test_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alon\Desktop\Alon\GoNature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C565F2-BB69-4BC3-B18A-4285A540F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB48F4B-6ABB-4F75-8364-1D4F33AA0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirementspre" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Req. number</t>
   </si>
@@ -63,30 +63,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>User is defined in DB.</t>
-  </si>
-  <si>
-    <t>LoginSuccessful</t>
-  </si>
-  <si>
-    <t>Open "LogIN" window. Type a user ID: 2345236 Type a password: alex124 Click "OK" button.</t>
-  </si>
-  <si>
-    <t>The password is correct.</t>
-  </si>
-  <si>
-    <t>User logs in. System defines in DB the status of user 2345236 as logged-in.</t>
-  </si>
-  <si>
-    <t>LoginNonexistingUser</t>
-  </si>
-  <si>
-    <t>. . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . .</t>
-  </si>
-  <si>
     <t>The system allows the park manager to set the "Average time spent" in his park</t>
   </si>
   <si>
@@ -186,12 +162,6 @@
     <t>The user cant order if the park if fully booked</t>
   </si>
   <si>
-    <t>The system allows the user to enter a waiting list In his selected Time/Date</t>
-  </si>
-  <si>
-    <t>The system allows the user to select a (available) different Time/Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system checks parks availability </t>
   </si>
   <si>
@@ -205,13 +175,144 @@
   </si>
   <si>
     <t>The user need to confirm/cancel his order</t>
+  </si>
+  <si>
+    <t>The system allows the user to enter a waiting list In his selected Time Slot</t>
+  </si>
+  <si>
+    <t>The system allows the user to select a (available) different Time Slot</t>
+  </si>
+  <si>
+    <t>MO-03 Time Slot is fully booked (Enter waiting list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO-02 Successful Group Booking </t>
+  </si>
+  <si>
+    <t>MO-04 Time Slot is fully booked (Select another date/time)</t>
+  </si>
+  <si>
+    <t>MO-08 Wrong input (Wrong Email)</t>
+  </si>
+  <si>
+    <t>MO-01 Successful Normal Booking (registered user)</t>
+  </si>
+  <si>
+    <t>MO-01 Successful Normal Booking  (first-time user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO-02 Group Booking (Unautherized Guide) </t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User enter a Email
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User Checks the "Organized Booking" CheckBox
+User selects number of attendees
+User selects Date and time
+User enter a Email
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User enter a Email
+User enters his new Username &amp; Password
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User selects "Enter Waiting List"
+User enter a Email
+User selects the "Finish" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User selects Another Date and time
+User enter a Email
+User selects the "Finish" button
+</t>
+  </si>
+  <si>
+    <t>MO-05 No Input (Email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User Clicks Next in the email screen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
+User select the "new booking" button
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User Enters "@#$@*^$" in the email Screen
+User Clicks Next in the email screen
+</t>
+  </si>
+  <si>
+    <t>MO-06 Wrong input (Wrong Email)</t>
+  </si>
+  <si>
+    <t>System indentify The user ID
+System Autherizes the Username &amp; password
+System Checks if the time slot is available
+system checks if the email is valid
+system sends the booking detail to the DB</t>
+  </si>
+  <si>
+    <t>System indentify The user ID
+System Autherizes the Username &amp; password
+System Autherizes The guide License
+System Checks if the time slot is available
+system checks if the email is valid
+system sends the booking detail to the DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System indentify The user ID
+System Autherizes the Username &amp; password
+System Checks if the time slot is available
+system checks if the email is valid
+system sends the booking detail to the DB
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +363,19 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,9 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -388,11 +499,41 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -429,10 +570,108 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -456,111 +695,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -597,20 +738,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -630,7 +757,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:C15" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3035E62B-0F81-4F66-A47D-38F8572F601E}" name="Req. number" dataDxfId="5"/>
@@ -642,7 +769,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:C16" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BD4B28DA-D821-44EF-96F5-46FF73357577}" name="Req. number"/>
@@ -964,189 +1091,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1162,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E038C0-8F0B-4414-9ED9-94B0938A7294}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1174,13 +1301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1189,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1200,10 +1327,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1211,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1222,10 +1349,10 @@
         <v>2.1</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1233,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1244,10 +1371,10 @@
         <v>3.1</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1255,10 +1382,10 @@
         <v>3.2</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1266,10 +1393,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1277,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1288,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1299,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1310,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -1321,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1332,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1343,10 +1470,10 @@
         <v>10.1</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1359,26 +1486,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028A801-0122-4DDE-8D73-57AF100E1B01}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="215" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.90625" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.90625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="39.1796875" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1391,50 +1518,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="2" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="215" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requirements_acceptance_test_.xlsx
+++ b/requirements_acceptance_test_.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alon\Desktop\Alon\GoNature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB48F4B-6ABB-4F75-8364-1D4F33AA0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA66C313-A62F-4042-8D89-41811A3B4B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirementspre" sheetId="1" r:id="rId1"/>
     <sheet name="Requirement" sheetId="6" r:id="rId2"/>
-    <sheet name="Make Order" sheetId="2" r:id="rId3"/>
-    <sheet name="Create Cancellection Report" sheetId="7" r:id="rId4"/>
+    <sheet name="Acceptance_Tests" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>Req. number</t>
   </si>
@@ -183,84 +182,10 @@
     <t>The system allows the user to select a (available) different Time Slot</t>
   </si>
   <si>
-    <t>MO-03 Time Slot is fully booked (Enter waiting list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO-02 Successful Group Booking </t>
-  </si>
-  <si>
-    <t>MO-04 Time Slot is fully booked (Select another date/time)</t>
-  </si>
-  <si>
-    <t>MO-08 Wrong input (Wrong Email)</t>
-  </si>
-  <si>
     <t>MO-01 Successful Normal Booking (registered user)</t>
   </si>
   <si>
     <t>MO-01 Successful Normal Booking  (first-time user)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO-02 Group Booking (Unautherized Guide) </t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
-User select the "new booking" button
-User Selects a park from the park list
-User selects number of attendees
-User selects Date and time
-User enter a Email
-User selects the "confirm Booking" button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
-User select the "new booking" button
-User Selects a park from the park list
-User Checks the "Organized Booking" CheckBox
-User selects number of attendees
-User selects Date and time
-User enter a Email
-User selects the "confirm Booking" button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters his ID
-User Selects a park from the park list
-User selects number of attendees
-User selects Date and time
-User enter a Email
-User enters his new Username &amp; Password
-User selects the "confirm Booking" button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
-User select the "new booking" button
-User Selects a park from the park list
-User selects number of attendees
-User selects Date and time
-User selects "Enter Waiting List"
-User enter a Email
-User selects the "Finish" button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters his Username &amp; Password to the login screen
-User select the "new booking" button
-User Selects a park from the park list
-User selects number of attendees
-User selects Date and time
-User selects Another Date and time
-User enter a Email
-User selects the "Finish" button
-</t>
-  </si>
-  <si>
-    <t>MO-05 No Input (Email)</t>
   </si>
   <si>
     <t xml:space="preserve">User enters his Username &amp; Password to the login screen
@@ -282,37 +207,797 @@
 </t>
   </si>
   <si>
-    <t>MO-06 Wrong input (Wrong Email)</t>
-  </si>
-  <si>
     <t>System indentify The user ID
-System Autherizes the Username &amp; password
 System Checks if the time slot is available
 system checks if the email is valid
+System saves the Username &amp; password to the DB
 system sends the booking detail to the DB</t>
   </si>
   <si>
-    <t>System indentify The user ID
-System Autherizes the Username &amp; password
+    <t>System sends an Exeption error "No guide license"</t>
+  </si>
+  <si>
+    <t>System Shows the user an option to select another timeslot or to enter waiting list
+System places the user in the waiting list</t>
+  </si>
+  <si>
+    <t>System Shows the user an option to select another timeslot or to enter waiting list
+System Checks if the time slot is available
+system sends the booking detail to the DB</t>
+  </si>
+  <si>
+    <t>System sends an Exeption error "No Email was inserted"</t>
+  </si>
+  <si>
+    <t>System sends an Exeption error "The Email that was inserted is not valid"</t>
+  </si>
+  <si>
+    <t>ID is valid
+New Username &amp; password is available 
+Timeslot is available
+Email is valid</t>
+  </si>
+  <si>
+    <t>ID is valid
+ID Has a guide license in the DB
+Timeslot is available
+Email is valid</t>
+  </si>
+  <si>
+    <t>ID doesn't have a guide license in the DB</t>
+  </si>
+  <si>
+    <t>Timeslot isn't available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error handling system is implemented </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR-01 Successful Cancelletion Report </t>
+  </si>
+  <si>
+    <t>System Autherizes the Username &amp; password
+System Autherizes the user as a P&amp;R manager
+system creates the report</t>
+  </si>
+  <si>
+    <t>Failed to accept remainder</t>
+  </si>
+  <si>
+    <t>System sends execption "Doesn't have premission to create report(P&amp;R manager needed)"</t>
+  </si>
+  <si>
+    <t>System sends execption "No date to create report"</t>
+  </si>
+  <si>
+    <t>ID not Valid</t>
+  </si>
+  <si>
+    <t>User is a park manager and not a P&amp;R manager</t>
+  </si>
+  <si>
+    <t>User is a normal worker and not a P&amp;R manager</t>
+  </si>
+  <si>
+    <t>No Date to Create Report</t>
+  </si>
+  <si>
+    <t>User is a P&amp;R manager
+Enough Data to create report</t>
+  </si>
+  <si>
+    <t>The system Need to keep the data of cancelled orders</t>
+  </si>
+  <si>
+    <t>The system Need to keep the data of Unexecuted orders</t>
+  </si>
+  <si>
+    <t>The data will include: Average and distribution of cancelled orders in a work day or of each area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID
+User Selects a park from the park list
+User selects number of attendees
+User selects Date and time
+User enter a Email
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO-03 Group Booking (Unautherized Guide) </t>
+  </si>
+  <si>
+    <t>MO-04 Time Slot is fully booked (Enter waiting list)</t>
+  </si>
+  <si>
+    <t>MO-05 Time Slot is fully booked (Select another date/time)</t>
+  </si>
+  <si>
+    <t>MO-06 No Input (Email)</t>
+  </si>
+  <si>
+    <t>MO-07 Wrong input (Wrong Email)</t>
+  </si>
+  <si>
+    <t>MO-09 No Input (ID)</t>
+  </si>
+  <si>
+    <t>MO-10 Wrong input (Wrong ID)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Group 20</t>
+  </si>
+  <si>
+    <t>CCR-03 Failed Cancelletion report (User Does not have premission(Park Manager))</t>
+  </si>
+  <si>
+    <t>CCR-04 Failed Cancelletion report (User Does not have premission(Normal Worker))</t>
+  </si>
+  <si>
+    <t>CCR-05 Failed Cancelletion Report(No data to create report)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:
+-Add details to description
+-Add wrong ID tests
+-Add comments
+</t>
+  </si>
+  <si>
+    <t>Reemy Halabi</t>
+  </si>
+  <si>
+    <t>Alon Barak</t>
+  </si>
+  <si>
+    <t>Ronen Fridman</t>
+  </si>
+  <si>
+    <t>Ofir Uziel</t>
+  </si>
+  <si>
+    <t>Adam Kayal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam.kayal@e.braude.ac.il </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reemi.Halabi@e.braude.ac.il </t>
+  </si>
+  <si>
+    <t>Ofir.uziel@e.bradue.ac.il</t>
+  </si>
+  <si>
+    <t>Ronen.Fridman@e.braude.ac.il</t>
+  </si>
+  <si>
+    <t>Alon.Barak@e.braude.ac.il</t>
+  </si>
+  <si>
+    <t>ID is valid
+Timeslot is available
+Email is valid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User enters his ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"205575878"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"new booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+User Selects a park from the park list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Hyde Park"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects number of attendees of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects Date and time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Monday 12:21"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User enter a Email </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"User1@gmail.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"confirm Booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575555"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User Checks the "Organized Booking" CheckBox
+User selects number of organized group attendees of 9
+User selects Date and time "Monday 12:21"
+User enter a Email "guide1@gmail.com"
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+System Authorizes the ID
 System Autherizes The guide License
 System Checks if the time slot is available
 system checks if the email is valid
 system sends the booking detail to the DB</t>
   </si>
   <si>
-    <t xml:space="preserve">System indentify The user ID
-System Autherizes the Username &amp; password
+    <t xml:space="preserve">
+System Authorizes the ID
 System Checks if the time slot is available
 system checks if the email is valid
 system sends the booking detail to the DB
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575555"
+User select the "new Organized Trip booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of organized group attendees of 9
+User selects Date and time "Monday 12:21"
+User enter a Email "guide1@gmail.com"
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575878"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of attendees of 2
+User selects Date and time "Monday 10:21"
+User selects "Enter Waiting List"
+User enter a Email "User1@gmail.com"
+User selects the "Finish" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575878"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of attendees of 2
+User selects Date and time "Monday 10:21"
+User selects another Date and time "Thursday 10:21"
+User enter a Email "User1@gmail.com"
+User selects the "Finish" button
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User enters his ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"205575878"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"new booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+User Selects a park from the park list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Hyde Park"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects number of attendees of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects Date and time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Monday 12:21"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User enter a Email </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"  "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"confirm Booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User enters his ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"205575878"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"new booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+User Selects a park from the park list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Hyde Park"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects number of attendees of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects Date and time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Monday 12:21"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User enter a Email </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"wrongk1@gnail.co"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User selects the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"confirm Booking"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username "Bossman1"
+User enters his Password "Pizza123"
+User selects "create report"
+User selects "Create Cancellation report"
+</t>
+  </si>
+  <si>
+    <t>CCR-02 Failed Cancelletion report (Username or password is not valid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username "normaman1"
+User enters his Password "bamia123"
+User selects "create report"
+User selects "Create Cancellation report"
+</t>
+  </si>
+  <si>
+    <t>System sends execption "Username or password entered isn’t valid"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username "LittleBossman1"
+User enters his Password "humburger123"
+User selects "create report"
+User selects "Create Cancellation report"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his Username "man1"
+User enters his Password "sushi123"
+User selects "create report"
+</t>
+  </si>
+  <si>
+    <t>The User is a travel guide, Books an organized trip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO-02 Successful Organized Trip Booking </t>
+  </si>
+  <si>
+    <t>The user hasn't inserted an email</t>
+  </si>
+  <si>
+    <t>the user inserted a not valid email address</t>
+  </si>
+  <si>
+    <t>User entered wrong Username &amp; password</t>
+  </si>
+  <si>
+    <t>User Is a park manager and don’t have premission to create a cancellation report</t>
+  </si>
+  <si>
+    <t>User Is a normal worker and don’t have premission to create a cancellation report</t>
+  </si>
+  <si>
+    <t>The system don’t have eno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User books a trip for 2 people to hyde park on Monday 12:21 </t>
+  </si>
+  <si>
+    <t>the user tries to book a trip but the date is fully booked, the user enter the waiting list for the timeslot</t>
+  </si>
+  <si>
+    <t>the user tries to book a trip but the date is fully booked, The user selects another date</t>
+  </si>
+  <si>
+    <t>The Department manager create the cancellation report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,34 +1020,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -377,8 +1039,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +1127,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -442,19 +1207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -467,59 +1219,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -528,29 +1371,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -558,16 +1378,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -757,20 +1567,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:C15" xr:uid="{9FB2A66F-830C-4218-99AC-F0D8FF3B8F33}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3035E62B-0F81-4F66-A47D-38F8572F601E}" name="Req. number" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3EEA6E0A-767C-4247-9598-7D0BDDCBB88C}" name="Requirement description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D2EF046B-380D-4741-A040-CD465F48231F}" name="Req. type (FR or NFR)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3035E62B-0F81-4F66-A47D-38F8572F601E}" name="Req. number" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3EEA6E0A-767C-4247-9598-7D0BDDCBB88C}" name="Requirement description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D2EF046B-380D-4741-A040-CD465F48231F}" name="Req. type (FR or NFR)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:C16" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}" name="Table3" displayName="Table3" ref="A10:C28" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A10:C28" xr:uid="{707029A5-6EAA-4C20-A50E-8B2A0EFF59D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BD4B28DA-D821-44EF-96F5-46FF73357577}" name="Req. number"/>
     <tableColumn id="2" xr3:uid="{4DDA777D-81EC-445E-A89A-5D321D9B72F0}" name="Requirement description"/>
@@ -1079,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2F884-F2EF-4287-AC3D-5537D5275C3C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B12" activeCellId="1" sqref="B15 B12"/>
     </sheetView>
   </sheetViews>
@@ -1091,139 +1901,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>6.1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
@@ -1287,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E038C0-8F0B-4414-9ED9-94B0938A7294}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1300,122 +2110,106 @@
     <col min="3" max="3" width="56.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="22">
+        <v>322781550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="22">
+        <v>207758525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="22">
+        <v>203483953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="22">
+        <v>313594699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="22">
+        <v>211584271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="11" spans="1:3" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2.1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3.1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3.2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1423,21 +2217,21 @@
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -1445,21 +2239,21 @@
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1467,16 +2261,152 @@
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>10.1</v>
+        <v>3.1</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3.2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10.1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>11.1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1486,146 +2416,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028A801-0122-4DDE-8D73-57AF100E1B01}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="215" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.90625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="38.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="7" customWidth="1"/>
     <col min="3" max="3" width="39.1796875" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="215" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>52</v>
+      <c r="D19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G2:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749B3F78-3655-4280-ABA2-5577CAB4F1FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>